--- a/info/metricas/NN/RELU/NN5.xlsx
+++ b/info/metricas/NN/RELU/NN5.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -495,31 +495,31 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.781990091733858</v>
+        <v>0.8097038626319719</v>
       </c>
       <c r="C2" t="n">
-        <v>81203.20780621005</v>
+        <v>69577.73292168586</v>
       </c>
       <c r="D2" t="n">
-        <v>181.0271468914145</v>
+        <v>172.9242736989171</v>
       </c>
       <c r="E2" t="n">
-        <v>107.0949365234376</v>
+        <v>104.5085284423829</v>
       </c>
       <c r="F2" t="n">
-        <v>4601166.992539082</v>
+        <v>879147.0074852944</v>
       </c>
       <c r="G2" t="n">
-        <v>2894.872568359375</v>
+        <v>2042.841918945312</v>
       </c>
       <c r="H2" t="n">
-        <v>0.7819942718769299</v>
+        <v>0.8098426904548223</v>
       </c>
       <c r="I2" t="n">
-        <v>5.901775342072988e+16</v>
+        <v>6.01109955852183e+16</v>
       </c>
       <c r="J2" t="n">
-        <v>-656017.0847468299</v>
+        <v>-119446.1241612246</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
@@ -537,31 +537,31 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.7909532795180583</v>
+        <v>0.7916801237506478</v>
       </c>
       <c r="C3" t="n">
-        <v>77574.93848144371</v>
+        <v>74411.54981414293</v>
       </c>
       <c r="D3" t="n">
-        <v>179.724136794243</v>
+        <v>175.7844434789032</v>
       </c>
       <c r="E3" t="n">
-        <v>108.8870495605469</v>
+        <v>106.3534600830078</v>
       </c>
       <c r="F3" t="n">
-        <v>4568048.384899274</v>
+        <v>893688.1106467437</v>
       </c>
       <c r="G3" t="n">
-        <v>3332.204501953125</v>
+        <v>2044.23583984375</v>
       </c>
       <c r="H3" t="n">
-        <v>0.7909562696416599</v>
+        <v>0.7916993571438584</v>
       </c>
       <c r="I3" t="n">
-        <v>5.071208296771311e+16</v>
+        <v>6.426506595065012e+16</v>
       </c>
       <c r="J3" t="n">
-        <v>-641691.2647770214</v>
+        <v>-121561.638531729</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
@@ -569,6 +569,342 @@
         </is>
       </c>
       <c r="L3" t="inlineStr">
+        <is>
+          <t>RELU5</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.7963252052765435</v>
+      </c>
+      <c r="C4" t="n">
+        <v>77313.00041955974</v>
+      </c>
+      <c r="D4" t="n">
+        <v>178.6346231274188</v>
+      </c>
+      <c r="E4" t="n">
+        <v>105.8671789550781</v>
+      </c>
+      <c r="F4" t="n">
+        <v>908178.4239797973</v>
+      </c>
+      <c r="G4" t="n">
+        <v>2137.261962890625</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.7963857051897024</v>
+      </c>
+      <c r="I4" t="n">
+        <v>7.058239137925073e+16</v>
+      </c>
+      <c r="J4" t="n">
+        <v>-133705.4225307857</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>RELU5</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.7993252688601972</v>
+      </c>
+      <c r="C5" t="n">
+        <v>77945.53033411381</v>
+      </c>
+      <c r="D5" t="n">
+        <v>179.8431672840509</v>
+      </c>
+      <c r="E5" t="n">
+        <v>107.5408837890625</v>
+      </c>
+      <c r="F5" t="n">
+        <v>914322.6624721147</v>
+      </c>
+      <c r="G5" t="n">
+        <v>2336.400986328125</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.7994483119912629</v>
+      </c>
+      <c r="I5" t="n">
+        <v>6.954523162070451e+16</v>
+      </c>
+      <c r="J5" t="n">
+        <v>-139798.6134170878</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>RELU5</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.8137403069426208</v>
+      </c>
+      <c r="C6" t="n">
+        <v>69428.82036490661</v>
+      </c>
+      <c r="D6" t="n">
+        <v>173.9921626916646</v>
+      </c>
+      <c r="E6" t="n">
+        <v>105.0528356933594</v>
+      </c>
+      <c r="F6" t="n">
+        <v>884402.162961731</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1707.985717773438</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.8137431500303388</v>
+      </c>
+      <c r="I6" t="n">
+        <v>5.854851571143462e+16</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-124520.9732277892</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>RELU5</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.8003842534765899</v>
+      </c>
+      <c r="C7" t="n">
+        <v>75395.85062796934</v>
+      </c>
+      <c r="D7" t="n">
+        <v>180.2836842286078</v>
+      </c>
+      <c r="E7" t="n">
+        <v>110.1068255615235</v>
+      </c>
+      <c r="F7" t="n">
+        <v>916381.9669340134</v>
+      </c>
+      <c r="G7" t="n">
+        <v>1835.389892578125</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.8006790305807236</v>
+      </c>
+      <c r="I7" t="n">
+        <v>5.220798525055319e+16</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-133891.5077236202</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>RELU5</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.7850630403324981</v>
+      </c>
+      <c r="C8" t="n">
+        <v>81357.14850611595</v>
+      </c>
+      <c r="D8" t="n">
+        <v>184.6136590817526</v>
+      </c>
+      <c r="E8" t="n">
+        <v>107.7616613769531</v>
+      </c>
+      <c r="F8" t="n">
+        <v>938391.2291125488</v>
+      </c>
+      <c r="G8" t="n">
+        <v>2022.258388671875</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.7850802340316534</v>
+      </c>
+      <c r="I8" t="n">
+        <v>6.358856149434043e+16</v>
+      </c>
+      <c r="J8" t="n">
+        <v>-74899.53073463426</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>RELU5</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0.807272697282062</v>
+      </c>
+      <c r="C9" t="n">
+        <v>72161.34366960169</v>
+      </c>
+      <c r="D9" t="n">
+        <v>172.4475885275661</v>
+      </c>
+      <c r="E9" t="n">
+        <v>101.2788708496093</v>
+      </c>
+      <c r="F9" t="n">
+        <v>876551.0924856187</v>
+      </c>
+      <c r="G9" t="n">
+        <v>2434.7941015625</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.8073489630662994</v>
+      </c>
+      <c r="I9" t="n">
+        <v>6.782878685753844e+16</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-122818.5355460251</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>RELU5</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0.7749550467338047</v>
+      </c>
+      <c r="C10" t="n">
+        <v>79928.00920558532</v>
+      </c>
+      <c r="D10" t="n">
+        <v>181.9234131648319</v>
+      </c>
+      <c r="E10" t="n">
+        <v>108.4725927734376</v>
+      </c>
+      <c r="F10" t="n">
+        <v>924716.7091168403</v>
+      </c>
+      <c r="G10" t="n">
+        <v>2457.4309375</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.7749777312814767</v>
+      </c>
+      <c r="I10" t="n">
+        <v>5.775911100779072e+16</v>
+      </c>
+      <c r="J10" t="n">
+        <v>-142512.5583040632</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>RELU5</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0.783598216134422</v>
+      </c>
+      <c r="C11" t="n">
+        <v>79603.87157871742</v>
+      </c>
+      <c r="D11" t="n">
+        <v>181.2853594110351</v>
+      </c>
+      <c r="E11" t="n">
+        <v>107.8571493530273</v>
+      </c>
+      <c r="F11" t="n">
+        <v>921473.4818862915</v>
+      </c>
+      <c r="G11" t="n">
+        <v>2166.696533203125</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.7836520695427044</v>
+      </c>
+      <c r="I11" t="n">
+        <v>8.14206623552613e+16</v>
+      </c>
+      <c r="J11" t="n">
+        <v>-112643.6072127292</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
         <is>
           <t>RELU5</t>
         </is>
